--- a/src/assets/Cameras.xlsx
+++ b/src/assets/Cameras.xlsx
@@ -3698,7 +3698,7 @@
   <dimension ref="A1:A1190"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:1190"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:1190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/assets/Cameras.xlsx
+++ b/src/assets/Cameras.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1214">
   <si>
     <t xml:space="preserve">PSJC-CSI-936.2</t>
   </si>
@@ -196,6 +196,9 @@
     <t xml:space="preserve">PSJC-CSI-883.1</t>
   </si>
   <si>
+    <t xml:space="preserve">PSJC-CSI-880</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSJC-CSI-879</t>
   </si>
   <si>
@@ -601,6 +604,9 @@
     <t xml:space="preserve">PSJC-CSI-765.1</t>
   </si>
   <si>
+    <t xml:space="preserve">PSJC-CSI-764</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSJC-CSI-763</t>
   </si>
   <si>
@@ -667,6 +673,9 @@
     <t xml:space="preserve">PSJC-CSI-744</t>
   </si>
   <si>
+    <t xml:space="preserve">PSJC-CSI-743</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSJC-CSI-742.3</t>
   </si>
   <si>
@@ -697,6 +706,9 @@
     <t xml:space="preserve">PSJC-CSI-736.2</t>
   </si>
   <si>
+    <t xml:space="preserve">PSJC-CSI-736.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSJC-CSI-735</t>
   </si>
   <si>
@@ -889,7 +901,10 @@
     <t xml:space="preserve">PSJC-CSI-657</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI-656</t>
+    <t xml:space="preserve">PSJC-CSI-656.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-656.1</t>
   </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-655.2</t>
@@ -922,10 +937,16 @@
     <t xml:space="preserve">PSJC-CSI-651.1</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI-650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-649</t>
+    <t xml:space="preserve">PSJC-CSI-650.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-650.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-649.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-649.1</t>
   </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-648.2</t>
@@ -946,16 +967,22 @@
     <t xml:space="preserve">PSJC-CSI-646.1</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI-645</t>
+    <t xml:space="preserve">PSJC-CSI-645.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-645.1</t>
   </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-644.2</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI-644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-643.1</t>
+    <t xml:space="preserve">PSJC-CSI-644.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-643.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI.643.1</t>
   </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-642.2</t>
@@ -973,7 +1000,7 @@
     <t xml:space="preserve">PSJC-CSI-640.2</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI-640</t>
+    <t xml:space="preserve">PSJC-CSI-640.1</t>
   </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-639.2</t>
@@ -982,13 +1009,16 @@
     <t xml:space="preserve">PSJC-CSI-639.1</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI-638</t>
+    <t xml:space="preserve">PSJC-CSI-638.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-638.1</t>
   </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-637.2</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI-637</t>
+    <t xml:space="preserve">PSJC-CSI-637.1</t>
   </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-636.2</t>
@@ -1027,7 +1057,10 @@
     <t xml:space="preserve">PSJC-CSI-631.1</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI-630</t>
+    <t xml:space="preserve">PSJC-CSI-630.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-630.1</t>
   </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-629.2</t>
@@ -2377,6 +2410,9 @@
     <t xml:space="preserve">PSJC-CSI-191.1</t>
   </si>
   <si>
+    <t xml:space="preserve">PSJC-CSI-190.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSJC-CSI-190.1</t>
   </si>
   <si>
@@ -2425,6 +2461,9 @@
     <t xml:space="preserve">PSJC-CSI-182.2</t>
   </si>
   <si>
+    <t xml:space="preserve">PSJC-CSI-182.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSJC-CSI-181.2</t>
   </si>
   <si>
@@ -2458,6 +2497,9 @@
     <t xml:space="preserve">PSJC-CSI-176.2</t>
   </si>
   <si>
+    <t xml:space="preserve">PSJC-CSI-176.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSJC-CSI-175.2</t>
   </si>
   <si>
@@ -2515,7 +2557,7 @@
     <t xml:space="preserve">PSJC-CSI-166.2</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI-166</t>
+    <t xml:space="preserve">PSJC-CSI-166.1</t>
   </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-165.2</t>
@@ -2527,6 +2569,9 @@
     <t xml:space="preserve">PSJC-CSI-164.2</t>
   </si>
   <si>
+    <t xml:space="preserve">PSJC-CSI-164.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSJC-CSI-163.2</t>
   </si>
   <si>
@@ -2578,6 +2623,9 @@
     <t xml:space="preserve">PSJC-CSI-155.2</t>
   </si>
   <si>
+    <t xml:space="preserve">PSJC-CSI-155.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSJC-CSI-154.2</t>
   </si>
   <si>
@@ -2695,6 +2743,9 @@
     <t xml:space="preserve">PSJC-CSI-136.2</t>
   </si>
   <si>
+    <t xml:space="preserve">PSJC-CSI-136.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSJC-CSI-135.4</t>
   </si>
   <si>
@@ -2758,838 +2809,859 @@
     <t xml:space="preserve">PSJC-CSI-131.10</t>
   </si>
   <si>
+    <t xml:space="preserve">PSJC-CSI-130.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-129.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-129.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-129.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-128.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-128.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-128.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-128.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-128.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-128.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-128.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-128.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-127.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-127.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-126.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-126.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-124.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-124.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-122.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-122.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-121.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-121.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-119.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-119.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-118.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-118.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-117.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-117.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-116.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-116.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-115.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-115.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-115.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-115.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-115.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-114.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-114.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-113.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-113.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-111.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-110.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-109.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-108.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-108.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-107.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-107.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-107.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-107.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-105.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-105.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-105.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-104.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-104.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-103.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-103.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-103.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-103.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-102.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-102.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-100.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-100.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-099.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-099.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-098.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-098.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-096.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-096.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-092.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-092.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-092.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-092.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-091.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-091.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-091.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-091.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-091.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-090.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-087.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-087.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-086.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-086.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-086.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-085.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-085.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-083.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-082.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-082.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-081.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-080.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-079.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-078.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-078.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-078.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-078.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-078.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-078.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-078.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-078.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-078.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-078.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-078.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-078.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-078.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-078.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-078.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-077.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-077.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-077.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-077.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-077.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-077.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-076.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-075.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-075.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-075.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-075.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-075.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-074.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-073.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-073.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-070.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-066.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-066.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-066.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-065.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-064.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-064.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-056.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-055.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-054.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-054.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-054.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-053.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-053.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-052.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-052.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-051.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-051.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-050.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-049.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-049.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-048.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-048.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-048.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-047.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-047.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-046.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-046.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-046.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-046.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-045.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-045.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-043.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-042.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-042.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-042.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-041.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-041.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-040.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-039.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-039.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-038.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-038.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-037.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-036.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-035.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-035.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-034.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-034.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-034.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-033.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-032.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-030.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-029.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-029.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-028.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-027.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-027.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-026.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-025.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-025.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-024.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-024.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-024.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-023.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-022.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-020.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-020.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-019.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-019.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-019.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-019.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-018.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-017.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-017.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-016.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-015.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-015.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-014.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-014.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-014.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-014.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-013.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-012.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-012.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-011.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-011.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-011.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-011.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-010.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-009.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-009.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-009.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-009.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-008.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-008.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-007.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-007.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-006.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-006.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-005.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-005.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-004.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-004.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-003.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-003.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-002.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-002.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-001.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-001.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-001.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-001.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSJC-CSI-131.1</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI-130.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-129.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-129.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-129.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-128.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-128.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-128.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-128.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-128.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-128.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-128.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-128.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-127.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-127.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-126.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-126.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-124.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-124.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-122.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-122.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-121.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-121.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-119.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-119.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-118.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-117.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-117.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-116.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-116.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-115.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-115.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-115.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-115.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-114.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-114.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-113.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-113.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-111.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-110.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-109.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-108.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-108.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-107.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-107.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-107.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-107.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-105.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-105.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-105.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-104.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-104.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-103.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-103.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-103.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-103.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-102.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-102.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-100.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-100.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-099.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-099.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-098.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-098.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-096.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-096.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-092.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-092.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-092.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-091.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-091.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-091.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-091.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-091.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-090.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-087.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-087.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-086.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-086.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-086.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-085.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-085.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-083.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-082.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-082.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-081.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-080.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-079.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-078.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-078.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-078.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-078.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-078.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-078.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-078.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-078.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-078.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-078.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-078.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-078.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-078.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-078.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-078.10</t>
-  </si>
-  <si>
     <t xml:space="preserve">PSJC-CSI-078.1</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI-077.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-077.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-077.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-077.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-077.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-077.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-076.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-075.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-075.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-075.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-075.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-075.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-074.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-073.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-073.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-070.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-066.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-066.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-066.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-065.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-064.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-064.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-056.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-055.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-054.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-054.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-054.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-053.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-053.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-052.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-051.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-051.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-050.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-049.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-049.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-048.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-048.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-048.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-047.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-047.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-046.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-046.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-046.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-046.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-045.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-045.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-043.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-042.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-042.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-042.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-041.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-041.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-040.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-039.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-039.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-038.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-038.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-037.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-036.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-035.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-035.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-034.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-034.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-034.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-033.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-032.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-030.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-029.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-029.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-028.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-027.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-027.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.20</t>
+    <t xml:space="preserve">PSJC-CSI-026.1</t>
   </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-026.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-025.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-025.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-024.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-024.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-024.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-023.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-022.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-020.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-019.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-019.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-019.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-019.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-018.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-017.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-017.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-016.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-015.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-015.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-014.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-014.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-014.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-014.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-013.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-012.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-012.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-011.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-011.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-011.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-011.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-010.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-009.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-009.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-009.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-009.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-008.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-008.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-007.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-007.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-006.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-006.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-005.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-005.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-004.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-004.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-003.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-003.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-002.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-002.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-001.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-001.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-001.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-001.1</t>
   </si>
 </sst>
 </file>
@@ -3599,7 +3671,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3621,6 +3693,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3665,12 +3743,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3695,16 +3777,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A1190"/>
+  <dimension ref="A1:A1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:1190"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:1215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16374" style="1" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16372" style="1" width="10.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5218,7 +5300,7 @@
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="2" t="s">
+      <c r="A303" s="1" t="s">
         <v>302</v>
       </c>
     </row>
@@ -5308,7 +5390,7 @@
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="1" t="s">
+      <c r="A321" s="2" t="s">
         <v>320</v>
       </c>
     </row>
@@ -7869,1794 +7951,1923 @@
     </row>
     <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A937" s="1" t="s">
         <v>935</v>
-      </c>
-    </row>
-    <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="2" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1039" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1042" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1047" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1048" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1049" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1052" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1053" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1054" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1055" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1056" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1071" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1072" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1072" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1073" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1073" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1074" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1074" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1075" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1076" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1077" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1077" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1078" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1078" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1079" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1079" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1080" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1080" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1081" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1082" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1083" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1083" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1084" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1084" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1085" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1086" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1086" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1087" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1087" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1088" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1088" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1089" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1089" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1090" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1091" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1091" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1092" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1093" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1094" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1094" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1095" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1095" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1096" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1096" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1097" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1097" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1098" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1098" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1099" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1099" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1100" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1101" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1102" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1103" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1104" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1105" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1107" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1108" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1109" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1110" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1111" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1112" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1113" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1114" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1115" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1116" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1117" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1118" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1119" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1120" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1121" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1122" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1123" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1124" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1125" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1126" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1127" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1128" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1129" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1130" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1131" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1132" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1133" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1134" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1135" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1136" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1137" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1138" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1140" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1142" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1143" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1144" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1145" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1146" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1147" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1148" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1149" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1150" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1151" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1152" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1153" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1154" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1155" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1156" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1157" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1158" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1159" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1160" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1161" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1164" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1165" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1166" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1167" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1168" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1169" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1170" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1171" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1172" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1175" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1176" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1177" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1178" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1179" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1180" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1181" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1182" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1183" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1184" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1185" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1187" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1188" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1189" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1190" s="1" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1191" s="1" t="s">
         <v>1189</v>
       </c>
     </row>
+    <row r="1192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1192" s="1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1193" s="1" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1194" s="1" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1195" s="1" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1196" s="1" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1197" s="1" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1198" s="1" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1199" s="1" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1200" s="1" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1201" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1202" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1203" s="1" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1204" s="1" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1205" s="1" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1206" s="1" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1207" s="1" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1208" s="1" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1209" s="1" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1210" s="1" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1211" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1212" s="3" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1213" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1214" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1215" s="1" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/src/assets/Cameras.xlsx
+++ b/src/assets/Cameras.xlsx
@@ -3777,10 +3777,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A1048576"/>
+  <dimension ref="A1:A1215"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:1215"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="11:1215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9864,10 +9864,6 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/src/assets/Cameras.xlsx
+++ b/src/assets/Cameras.xlsx
@@ -982,7 +982,7 @@
     <t xml:space="preserve">PSJC-CSI-643.2</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI.643.1</t>
+    <t xml:space="preserve">PSJC-CSI-643.1</t>
   </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-642.2</t>
@@ -3779,8 +3779,8 @@
   </sheetPr>
   <dimension ref="A1:A1215"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="11:1215"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A301" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F325" activeCellId="0" sqref="F325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/assets/Cameras.xlsx
+++ b/src/assets/Cameras.xlsx
@@ -3779,14 +3779,15 @@
   </sheetPr>
   <dimension ref="A1:A1215"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A301" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F325" activeCellId="0" sqref="F325"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16372" style="1" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16373" min="16372" style="0" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16374" style="1" width="10.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/assets/Cameras.xlsx
+++ b/src/assets/Cameras.xlsx
@@ -3780,14 +3780,15 @@
   <dimension ref="A1:A1215"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B15"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16373" min="16372" style="0" width="10.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16374" style="1" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16373" min="16372" style="1" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16374" min="16374" style="0" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16375" style="1" width="10.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/assets/Cameras.xlsx
+++ b/src/assets/Cameras.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="1215">
+  <si>
+    <t xml:space="preserve">PSJC-CSI-937</t>
+  </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-936.2</t>
   </si>
@@ -3777,18 +3780,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A1215"/>
+  <dimension ref="A1:A1216"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B85"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16373" min="16372" style="1" width="10.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16374" min="16374" style="0" width="10.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16375" style="1" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16372" min="16372" style="0" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16373" style="1" width="10.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5392,12 +5394,12 @@
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="2" t="s">
+      <c r="A321" s="1" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="1" t="s">
+      <c r="A322" s="2" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7953,7 +7955,7 @@
     </row>
     <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9847,12 +9849,12 @@
       </c>
     </row>
     <row r="1212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1212" s="3" t="s">
+      <c r="A1212" s="1" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="1213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1213" s="1" t="s">
+      <c r="A1213" s="3" t="s">
         <v>1211</v>
       </c>
     </row>
@@ -9864,6 +9866,11 @@
     <row r="1215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1215" s="1" t="s">
         <v>1213</v>
+      </c>
+    </row>
+    <row r="1216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1216" s="1" t="s">
+        <v>1214</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/Cameras.xlsx
+++ b/src/assets/Cameras.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="1215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="1213">
   <si>
     <t xml:space="preserve">PSJC-CSI-937</t>
   </si>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">PSJC-CSI-930.1</t>
   </si>
   <si>
+    <t xml:space="preserve">PSJC-CSI-929</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSJC-CSI-928.2</t>
   </si>
   <si>
@@ -352,15 +355,15 @@
     <t xml:space="preserve">PSJC-CSI-836.2</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI-836.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-835.4</t>
+    <t xml:space="preserve">PSJC-CSI-836-1</t>
   </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-835.3</t>
   </si>
   <si>
+    <t xml:space="preserve">PSJC-CSI-835-4</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSJC-CSI-834</t>
   </si>
   <si>
@@ -781,7 +784,7 @@
     <t xml:space="preserve">PSJC-CSI-706.1</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI-705.1</t>
+    <t xml:space="preserve">PSJC-CSI-705</t>
   </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-703</t>
@@ -820,7 +823,7 @@
     <t xml:space="preserve">PSJC-CSI-674.2</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI-674.1</t>
+    <t xml:space="preserve">PSJC-CSI-674</t>
   </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-673</t>
@@ -913,7 +916,7 @@
     <t xml:space="preserve">PSJC-CSI-655.2</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI-655.1</t>
+    <t xml:space="preserve">PSJC-CSI-655</t>
   </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-654.2</t>
@@ -931,7 +934,7 @@
     <t xml:space="preserve">PSJC-CSI-652.2</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI-652.1</t>
+    <t xml:space="preserve">PSJC-CSI-652</t>
   </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-651.2</t>
@@ -1057,7 +1060,7 @@
     <t xml:space="preserve">PSJC-CSI-631.2</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI-631.1</t>
+    <t xml:space="preserve">PSJC-CSI-631</t>
   </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-630.2</t>
@@ -1069,13 +1072,13 @@
     <t xml:space="preserve">PSJC-CSI-629.2</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI-629.1</t>
+    <t xml:space="preserve">PSJC-CSI-629</t>
   </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-628.2</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI-628.1</t>
+    <t xml:space="preserve">PSJC-CSI-628</t>
   </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-627.2</t>
@@ -2812,6 +2815,9 @@
     <t xml:space="preserve">PSJC-CSI-131.10</t>
   </si>
   <si>
+    <t xml:space="preserve">PSJC-CSI-131.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSJC-CSI-130.1</t>
   </si>
   <si>
@@ -2881,9 +2887,6 @@
     <t xml:space="preserve">PSJC-CSI-121.4</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI-121.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">PSJC-CSI-120</t>
   </si>
   <si>
@@ -2911,9 +2914,6 @@
     <t xml:space="preserve">PSJC-CSI-116.1</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI-115.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">PSJC-CSI-115.4</t>
   </si>
   <si>
@@ -3043,9 +3043,6 @@
     <t xml:space="preserve">PSJC-CSI-092.4</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI-092.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">PSJC-CSI-092.2</t>
   </si>
   <si>
@@ -3163,6 +3160,9 @@
     <t xml:space="preserve">PSJC-CSI-078.10</t>
   </si>
   <si>
+    <t xml:space="preserve">PSJC-CSI-078.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSJC-CSI-077.6</t>
   </si>
   <si>
@@ -3463,6 +3463,9 @@
     <t xml:space="preserve">PSJC-CSI-026.20</t>
   </si>
   <si>
+    <t xml:space="preserve">PSJC-CSI-026.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSJC-CSI-026.19</t>
   </si>
   <si>
@@ -3493,6 +3496,9 @@
     <t xml:space="preserve">PSJC-CSI-026.10</t>
   </si>
   <si>
+    <t xml:space="preserve">PSJC-CSI-026.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSJC-CSI-025.2</t>
   </si>
   <si>
@@ -3653,18 +3659,6 @@
   </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-001.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-131.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-078.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-026.2</t>
   </si>
 </sst>
 </file>
@@ -3674,7 +3668,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3696,12 +3690,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3755,7 +3743,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3772,6 +3760,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -3780,6097 +3785,6086 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A1216"/>
+  <dimension ref="A1:XER1213"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16372" min="16372" style="0" width="10.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16373" style="1" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16371" min="16369" style="1" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16373" min="16372" style="0" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16374" style="1" width="10.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="XEP1" s="3"/>
+      <c r="XEQ1" s="3"/>
+      <c r="XER1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="0" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="0" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="0" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="0" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="0" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="0" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="0" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="0" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="0" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="0" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="0" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="0" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="0" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="0" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="0" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="0" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="0" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="0" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="0" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="0" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="0" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="0" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="0" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="0" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="0" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="0" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="0" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="0" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="0" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="0" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="0" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="0" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="0" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="0" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="0" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="0" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="0" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="0" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="0" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="0" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="0" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="0" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="0" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="0" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="0" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="0" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="0" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="0" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="0" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="0" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="0" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="0" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="0" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="0" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="0" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="0" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="0" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="0" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="0" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="0" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="0" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="0" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="0" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="0" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="0" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="0" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="0" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="0" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="0" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="0" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="0" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="0" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="0" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="0" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="0" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="0" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="0" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="0" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="0" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="0" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="0" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="0" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="0" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="0" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="0" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="0" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="0" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="0" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="0" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="0" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="0" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="0" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="0" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="0" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="0" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="0" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="0" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="0" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="0" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="0" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="0" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="0" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="0" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="0" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="0" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="0" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="0" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="0" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="0" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="0" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="0" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="0" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="0" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="0" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="0" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="0" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="0" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="0" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="0" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="0" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="0" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="0" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="0" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="0" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="0" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="0" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="0" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="0" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="0" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="0" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="0" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="0" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="0" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="0" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="0" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="0" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="0" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="0" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="0" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="0" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="0" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="0" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="0" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="0" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="0" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="0" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="0" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="0" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="0" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="0" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="0" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="0" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="0" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="0" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="0" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="0" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="0" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="0" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="0" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="0" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="0" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="0" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="0" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="0" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="0" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="0" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="0" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="0" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="0" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="0" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="0" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="0" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="0" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="0" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="0" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="0" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="0" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="0" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="0" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="0" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="0" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="0" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="0" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="0" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="0" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="0" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="0" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="0" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="0" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="0" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="0" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="0" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="0" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="0" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="0" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="0" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="0" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="0" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="1" t="s">
+      <c r="A219" s="0" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1" t="s">
+      <c r="A220" s="0" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="0" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="0" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="0" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="1" t="s">
+      <c r="A224" s="0" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="0" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="0" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="0" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="1" t="s">
+      <c r="A228" s="0" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="0" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="0" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="s">
+      <c r="A231" s="0" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="0" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="0" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="0" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="0" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="0" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="1" t="s">
+      <c r="A237" s="0" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="1" t="s">
+      <c r="A238" s="0" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="0" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="0" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="s">
+      <c r="A241" s="0" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="1" t="s">
+      <c r="A242" s="0" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="1" t="s">
+      <c r="A243" s="0" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="1" t="s">
+      <c r="A244" s="0" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="0" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="1" t="s">
+      <c r="A246" s="0" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="1" t="s">
+      <c r="A247" s="0" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="1" t="s">
+      <c r="A248" s="0" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="1" t="s">
+      <c r="A249" s="0" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="1" t="s">
+      <c r="A250" s="0" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="1" t="s">
+      <c r="A251" s="0" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="1" t="s">
+      <c r="A252" s="0" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="1" t="s">
+      <c r="A253" s="0" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="1" t="s">
+      <c r="A254" s="0" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="1" t="s">
+      <c r="A255" s="0" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="1" t="s">
+      <c r="A256" s="0" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="1" t="s">
+      <c r="A257" s="0" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="1" t="s">
+      <c r="A258" s="0" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="1" t="s">
+      <c r="A259" s="0" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="1" t="s">
+      <c r="A260" s="0" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="1" t="s">
+      <c r="A261" s="0" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="1" t="s">
+      <c r="A262" s="0" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="1" t="s">
+      <c r="A263" s="0" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="1" t="s">
+      <c r="A264" s="0" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="1" t="s">
+      <c r="A265" s="0" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="1" t="s">
+      <c r="A266" s="0" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="1" t="s">
+      <c r="A267" s="0" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="1" t="s">
+      <c r="A268" s="0" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="1" t="s">
+      <c r="A269" s="0" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="1" t="s">
+      <c r="A270" s="0" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="1" t="s">
+      <c r="A271" s="0" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="1" t="s">
+      <c r="A272" s="0" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="1" t="s">
+      <c r="A273" s="0" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="1" t="s">
+      <c r="A274" s="0" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="1" t="s">
+      <c r="A275" s="0" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="1" t="s">
+      <c r="A276" s="0" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="1" t="s">
+      <c r="A277" s="0" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="1" t="s">
+      <c r="A278" s="0" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="1" t="s">
+      <c r="A279" s="0" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="1" t="s">
+      <c r="A280" s="0" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="1" t="s">
+      <c r="A281" s="0" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="1" t="s">
+      <c r="A282" s="0" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="1" t="s">
+      <c r="A283" s="0" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="1" t="s">
+      <c r="A284" s="0" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="1" t="s">
+      <c r="A285" s="0" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="1" t="s">
+      <c r="A286" s="0" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="1" t="s">
+      <c r="A287" s="0" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="1" t="s">
+      <c r="A288" s="0" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="1" t="s">
+      <c r="A289" s="0" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="1" t="s">
+      <c r="A290" s="0" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="1" t="s">
+      <c r="A291" s="0" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="1" t="s">
+      <c r="A292" s="0" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="1" t="s">
+      <c r="A293" s="0" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="1" t="s">
+      <c r="A294" s="0" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="1" t="s">
+      <c r="A295" s="0" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="1" t="s">
+      <c r="A296" s="0" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="1" t="s">
+      <c r="A297" s="0" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="1" t="s">
+      <c r="A298" s="0" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="1" t="s">
+      <c r="A299" s="0" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="1" t="s">
+      <c r="A300" s="0" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="1" t="s">
+      <c r="A301" s="0" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="1" t="s">
+      <c r="A302" s="0" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="1" t="s">
+      <c r="A303" s="0" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="1" t="s">
+      <c r="A304" s="0" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="1" t="s">
+      <c r="A305" s="0" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="1" t="s">
+      <c r="A306" s="0" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="1" t="s">
+      <c r="A307" s="0" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="1" t="s">
+      <c r="A308" s="0" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="1" t="s">
+      <c r="A309" s="0" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="1" t="s">
+      <c r="A310" s="0" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="1" t="s">
+      <c r="A311" s="0" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="1" t="s">
+      <c r="A312" s="0" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="1" t="s">
+      <c r="A313" s="0" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="1" t="s">
+      <c r="A314" s="0" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="1" t="s">
+      <c r="A315" s="0" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="1" t="s">
+      <c r="A316" s="0" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="1" t="s">
+      <c r="A317" s="0" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="1" t="s">
+      <c r="A318" s="0" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="1" t="s">
+      <c r="A319" s="0" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="1" t="s">
+      <c r="A320" s="0" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="1" t="s">
+      <c r="A321" s="0" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="2" t="s">
+      <c r="A322" s="0" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="1" t="s">
+      <c r="A323" s="0" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="1" t="s">
+      <c r="A324" s="0" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="1" t="s">
+      <c r="A325" s="0" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="1" t="s">
+      <c r="A326" s="0" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="1" t="s">
+      <c r="A327" s="0" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="1" t="s">
+      <c r="A328" s="0" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="1" t="s">
+      <c r="A329" s="0" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="1" t="s">
+      <c r="A330" s="0" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="1" t="s">
+      <c r="A331" s="0" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="1" t="s">
+      <c r="A332" s="0" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="1" t="s">
+      <c r="A333" s="0" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="1" t="s">
+      <c r="A334" s="0" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="1" t="s">
+      <c r="A335" s="0" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="1" t="s">
+      <c r="A336" s="0" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="1" t="s">
+      <c r="A337" s="0" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="1" t="s">
+      <c r="A338" s="0" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="1" t="s">
+      <c r="A339" s="0" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="1" t="s">
+      <c r="A340" s="0" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="1" t="s">
+      <c r="A341" s="0" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="1" t="s">
+      <c r="A342" s="0" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="1" t="s">
+      <c r="A343" s="0" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="1" t="s">
+      <c r="A344" s="0" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="1" t="s">
+      <c r="A345" s="0" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="1" t="s">
+      <c r="A346" s="0" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="1" t="s">
+      <c r="A347" s="0" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="1" t="s">
+      <c r="A348" s="0" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="1" t="s">
+      <c r="A349" s="0" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="1" t="s">
+      <c r="A350" s="0" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="1" t="s">
+      <c r="A351" s="0" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="1" t="s">
+      <c r="A352" s="0" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="1" t="s">
+      <c r="A353" s="0" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="1" t="s">
+      <c r="A354" s="0" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="1" t="s">
+      <c r="A355" s="0" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="1" t="s">
+      <c r="A356" s="0" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="1" t="s">
+      <c r="A357" s="0" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="1" t="s">
+      <c r="A358" s="0" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="1" t="s">
+      <c r="A359" s="0" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="1" t="s">
+      <c r="A360" s="0" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="1" t="s">
+      <c r="A361" s="0" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="1" t="s">
+      <c r="A362" s="0" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="1" t="s">
+      <c r="A363" s="0" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="1" t="s">
+      <c r="A364" s="0" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="1" t="s">
+      <c r="A365" s="0" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="1" t="s">
+      <c r="A366" s="0" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="1" t="s">
+      <c r="A367" s="0" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="1" t="s">
+      <c r="A368" s="0" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="1" t="s">
+      <c r="A369" s="0" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="1" t="s">
+      <c r="A370" s="0" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="1" t="s">
+      <c r="A371" s="0" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="1" t="s">
+      <c r="A372" s="0" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="1" t="s">
+      <c r="A373" s="0" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="1" t="s">
+      <c r="A374" s="0" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="1" t="s">
+      <c r="A375" s="0" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="1" t="s">
+      <c r="A376" s="0" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="1" t="s">
+      <c r="A377" s="0" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="1" t="s">
+      <c r="A378" s="0" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="1" t="s">
+      <c r="A379" s="0" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="1" t="s">
+      <c r="A380" s="0" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="1" t="s">
+      <c r="A381" s="0" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="1" t="s">
+      <c r="A382" s="0" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="1" t="s">
+      <c r="A383" s="0" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="1" t="s">
+      <c r="A384" s="0" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="1" t="s">
+      <c r="A385" s="0" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="1" t="s">
+      <c r="A386" s="0" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="1" t="s">
+      <c r="A387" s="0" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="1" t="s">
+      <c r="A388" s="0" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="1" t="s">
+      <c r="A389" s="0" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="1" t="s">
+      <c r="A390" s="0" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="1" t="s">
+      <c r="A391" s="0" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="1" t="s">
+      <c r="A392" s="0" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="1" t="s">
+      <c r="A393" s="0" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="1" t="s">
+      <c r="A394" s="0" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="1" t="s">
+      <c r="A395" s="0" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="1" t="s">
+      <c r="A396" s="0" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="1" t="s">
+      <c r="A397" s="0" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="1" t="s">
+      <c r="A398" s="0" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="1" t="s">
+      <c r="A399" s="0" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="1" t="s">
+      <c r="A400" s="0" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="1" t="s">
+      <c r="A401" s="0" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="1" t="s">
+      <c r="A402" s="0" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="1" t="s">
+      <c r="A403" s="0" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="1" t="s">
+      <c r="A404" s="0" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="1" t="s">
+      <c r="A405" s="0" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="1" t="s">
+      <c r="A406" s="0" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="1" t="s">
+      <c r="A407" s="0" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="1" t="s">
+      <c r="A408" s="0" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="1" t="s">
+      <c r="A409" s="0" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="1" t="s">
+      <c r="A410" s="0" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="1" t="s">
+      <c r="A411" s="0" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="1" t="s">
+      <c r="A412" s="0" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="1" t="s">
+      <c r="A413" s="0" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="1" t="s">
+      <c r="A414" s="0" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="1" t="s">
+      <c r="A415" s="0" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="1" t="s">
+      <c r="A416" s="0" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="1" t="s">
+      <c r="A417" s="0" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="1" t="s">
+      <c r="A418" s="0" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="1" t="s">
+      <c r="A419" s="0" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="1" t="s">
+      <c r="A420" s="0" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="1" t="s">
+      <c r="A421" s="0" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="1" t="s">
+      <c r="A422" s="0" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="1" t="s">
+      <c r="A423" s="0" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="1" t="s">
+      <c r="A424" s="0" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="1" t="s">
+      <c r="A425" s="0" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="1" t="s">
+      <c r="A426" s="0" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="1" t="s">
+      <c r="A427" s="0" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="1" t="s">
+      <c r="A428" s="0" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="1" t="s">
+      <c r="A429" s="0" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="1" t="s">
+      <c r="A430" s="0" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="1" t="s">
+      <c r="A431" s="0" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="1" t="s">
+      <c r="A432" s="0" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="1" t="s">
+      <c r="A433" s="0" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="1" t="s">
+      <c r="A434" s="0" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="1" t="s">
+      <c r="A435" s="0" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="1" t="s">
+      <c r="A436" s="0" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="1" t="s">
+      <c r="A437" s="0" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="1" t="s">
+      <c r="A438" s="0" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="1" t="s">
+      <c r="A439" s="0" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="1" t="s">
+      <c r="A440" s="0" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="1" t="s">
+      <c r="A441" s="0" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="1" t="s">
+      <c r="A442" s="0" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="1" t="s">
+      <c r="A443" s="0" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="1" t="s">
+      <c r="A444" s="0" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="1" t="s">
+      <c r="A445" s="0" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="1" t="s">
+      <c r="A446" s="0" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="1" t="s">
+      <c r="A447" s="0" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="1" t="s">
+      <c r="A448" s="0" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="1" t="s">
+      <c r="A449" s="0" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="1" t="s">
+      <c r="A450" s="0" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="1" t="s">
+      <c r="A451" s="0" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="1" t="s">
+      <c r="A452" s="0" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="1" t="s">
+      <c r="A453" s="0" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="1" t="s">
+      <c r="A454" s="0" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="1" t="s">
+      <c r="A455" s="0" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="1" t="s">
+      <c r="A456" s="0" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="1" t="s">
+      <c r="A457" s="0" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="1" t="s">
+      <c r="A458" s="0" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="1" t="s">
+      <c r="A459" s="0" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="1" t="s">
+      <c r="A460" s="0" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="1" t="s">
+      <c r="A461" s="0" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="1" t="s">
+      <c r="A462" s="0" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="1" t="s">
+      <c r="A463" s="0" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="1" t="s">
+      <c r="A464" s="0" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="1" t="s">
+      <c r="A465" s="0" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="1" t="s">
+      <c r="A466" s="0" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="1" t="s">
+      <c r="A467" s="0" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="1" t="s">
+      <c r="A468" s="0" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="1" t="s">
+      <c r="A469" s="0" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="1" t="s">
+      <c r="A470" s="0" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="1" t="s">
+      <c r="A471" s="0" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="1" t="s">
+      <c r="A472" s="0" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="1" t="s">
+      <c r="A473" s="0" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="1" t="s">
+      <c r="A474" s="0" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="1" t="s">
+      <c r="A475" s="0" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="1" t="s">
+      <c r="A476" s="0" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="1" t="s">
+      <c r="A477" s="0" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="1" t="s">
+      <c r="A478" s="0" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="1" t="s">
+      <c r="A479" s="0" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="1" t="s">
+      <c r="A480" s="0" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="1" t="s">
+      <c r="A481" s="0" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="1" t="s">
+      <c r="A482" s="0" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="1" t="s">
+      <c r="A483" s="0" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="1" t="s">
+      <c r="A484" s="0" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="1" t="s">
+      <c r="A485" s="0" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="1" t="s">
+      <c r="A486" s="0" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="1" t="s">
+      <c r="A487" s="0" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="1" t="s">
+      <c r="A488" s="0" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="1" t="s">
+      <c r="A489" s="0" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="1" t="s">
+      <c r="A490" s="0" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="1" t="s">
+      <c r="A491" s="0" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="1" t="s">
+      <c r="A492" s="0" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="1" t="s">
+      <c r="A493" s="0" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="1" t="s">
+      <c r="A494" s="0" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="1" t="s">
+      <c r="A495" s="0" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="1" t="s">
+      <c r="A496" s="0" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="1" t="s">
+      <c r="A497" s="0" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="1" t="s">
+      <c r="A498" s="0" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="1" t="s">
+      <c r="A499" s="0" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="1" t="s">
+      <c r="A500" s="0" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="1" t="s">
+      <c r="A501" s="0" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="1" t="s">
+      <c r="A502" s="0" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="1" t="s">
+      <c r="A503" s="0" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="1" t="s">
+      <c r="A504" s="0" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="1" t="s">
+      <c r="A505" s="0" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="1" t="s">
+      <c r="A506" s="0" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="1" t="s">
+      <c r="A507" s="0" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="1" t="s">
+      <c r="A508" s="0" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="1" t="s">
+      <c r="A509" s="0" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="1" t="s">
+      <c r="A510" s="0" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="1" t="s">
+      <c r="A511" s="0" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="1" t="s">
+      <c r="A512" s="0" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="1" t="s">
+      <c r="A513" s="0" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="1" t="s">
+      <c r="A514" s="0" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="1" t="s">
+      <c r="A515" s="0" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="1" t="s">
+      <c r="A516" s="0" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="1" t="s">
+      <c r="A517" s="0" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="1" t="s">
+      <c r="A518" s="0" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="1" t="s">
+      <c r="A519" s="0" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="1" t="s">
+      <c r="A520" s="0" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="1" t="s">
+      <c r="A521" s="0" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="1" t="s">
+      <c r="A522" s="0" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="1" t="s">
+      <c r="A523" s="0" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="1" t="s">
+      <c r="A524" s="0" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="1" t="s">
+      <c r="A525" s="0" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="1" t="s">
+      <c r="A526" s="0" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="1" t="s">
+      <c r="A527" s="0" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="1" t="s">
+      <c r="A528" s="0" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="1" t="s">
+      <c r="A529" s="0" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="1" t="s">
+      <c r="A530" s="0" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="1" t="s">
+      <c r="A531" s="0" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="1" t="s">
+      <c r="A532" s="0" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="1" t="s">
+      <c r="A533" s="0" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="1" t="s">
+      <c r="A534" s="0" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="1" t="s">
+      <c r="A535" s="0" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="1" t="s">
+      <c r="A536" s="0" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="1" t="s">
+      <c r="A537" s="0" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="1" t="s">
+      <c r="A538" s="0" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="1" t="s">
+      <c r="A539" s="0" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="1" t="s">
+      <c r="A540" s="0" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="1" t="s">
+      <c r="A541" s="0" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="1" t="s">
+      <c r="A542" s="0" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="1" t="s">
+      <c r="A543" s="0" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="1" t="s">
+      <c r="A544" s="0" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="1" t="s">
+      <c r="A545" s="0" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="1" t="s">
+      <c r="A546" s="0" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="1" t="s">
+      <c r="A547" s="0" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="1" t="s">
+      <c r="A548" s="0" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="1" t="s">
+      <c r="A549" s="0" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="1" t="s">
+      <c r="A550" s="0" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="1" t="s">
+      <c r="A551" s="0" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="1" t="s">
+      <c r="A552" s="0" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="1" t="s">
+      <c r="A553" s="0" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="1" t="s">
+      <c r="A554" s="0" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="1" t="s">
+      <c r="A555" s="0" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="1" t="s">
+      <c r="A556" s="0" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="1" t="s">
+      <c r="A557" s="0" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="1" t="s">
+      <c r="A558" s="0" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="1" t="s">
+      <c r="A559" s="0" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="1" t="s">
+      <c r="A560" s="0" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="1" t="s">
+      <c r="A561" s="0" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="1" t="s">
+      <c r="A562" s="0" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="1" t="s">
+      <c r="A563" s="0" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="1" t="s">
+      <c r="A564" s="0" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="1" t="s">
+      <c r="A565" s="0" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="1" t="s">
+      <c r="A566" s="0" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="1" t="s">
+      <c r="A567" s="0" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="1" t="s">
+      <c r="A568" s="0" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="1" t="s">
+      <c r="A569" s="0" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="1" t="s">
+      <c r="A570" s="0" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="1" t="s">
+      <c r="A571" s="0" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="1" t="s">
+      <c r="A572" s="0" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="1" t="s">
+      <c r="A573" s="0" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="1" t="s">
+      <c r="A574" s="0" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="1" t="s">
+      <c r="A575" s="0" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="1" t="s">
+      <c r="A576" s="0" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="1" t="s">
+      <c r="A577" s="0" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="1" t="s">
+      <c r="A578" s="0" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="1" t="s">
+      <c r="A579" s="0" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="1" t="s">
+      <c r="A580" s="0" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="1" t="s">
+      <c r="A581" s="0" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="1" t="s">
+      <c r="A582" s="0" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="1" t="s">
+      <c r="A583" s="0" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="1" t="s">
+      <c r="A584" s="0" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="1" t="s">
+      <c r="A585" s="0" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="1" t="s">
+      <c r="A586" s="0" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="1" t="s">
+      <c r="A587" s="0" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="1" t="s">
+      <c r="A588" s="0" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="1" t="s">
+      <c r="A589" s="0" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="1" t="s">
+      <c r="A590" s="0" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="1" t="s">
+      <c r="A591" s="0" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="1" t="s">
+      <c r="A592" s="0" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="1" t="s">
+      <c r="A593" s="0" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="1" t="s">
+      <c r="A594" s="0" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="1" t="s">
+      <c r="A595" s="0" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="1" t="s">
+      <c r="A596" s="0" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="1" t="s">
+      <c r="A597" s="0" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="1" t="s">
+      <c r="A598" s="0" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="1" t="s">
+      <c r="A599" s="0" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="1" t="s">
+      <c r="A600" s="0" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="1" t="s">
+      <c r="A601" s="0" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="1" t="s">
+      <c r="A602" s="0" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="1" t="s">
+      <c r="A603" s="0" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="1" t="s">
+      <c r="A604" s="0" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="1" t="s">
+      <c r="A605" s="0" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="1" t="s">
+      <c r="A606" s="0" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="1" t="s">
+      <c r="A607" s="0" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="1" t="s">
+      <c r="A608" s="0" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="1" t="s">
+      <c r="A609" s="0" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="1" t="s">
+      <c r="A610" s="0" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="1" t="s">
+      <c r="A611" s="0" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="1" t="s">
+      <c r="A612" s="0" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="1" t="s">
+      <c r="A613" s="0" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="1" t="s">
+      <c r="A614" s="0" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="1" t="s">
+      <c r="A615" s="0" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="1" t="s">
+      <c r="A616" s="0" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="1" t="s">
+      <c r="A617" s="0" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="1" t="s">
+      <c r="A618" s="0" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="1" t="s">
+      <c r="A619" s="0" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="1" t="s">
+      <c r="A620" s="0" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="1" t="s">
+      <c r="A621" s="0" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="1" t="s">
+      <c r="A622" s="0" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="1" t="s">
+      <c r="A623" s="0" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="1" t="s">
+      <c r="A624" s="0" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="1" t="s">
+      <c r="A625" s="0" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="1" t="s">
+      <c r="A626" s="0" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="1" t="s">
+      <c r="A627" s="0" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="1" t="s">
+      <c r="A628" s="0" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="1" t="s">
+      <c r="A629" s="0" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="1" t="s">
+      <c r="A630" s="0" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="1" t="s">
+      <c r="A631" s="0" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="1" t="s">
+      <c r="A632" s="0" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="1" t="s">
+      <c r="A633" s="0" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="1" t="s">
+      <c r="A634" s="0" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="1" t="s">
+      <c r="A635" s="0" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="1" t="s">
+      <c r="A636" s="0" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="1" t="s">
+      <c r="A637" s="0" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="1" t="s">
+      <c r="A638" s="0" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="1" t="s">
+      <c r="A639" s="0" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="1" t="s">
+      <c r="A640" s="0" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="1" t="s">
+      <c r="A641" s="0" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="1" t="s">
+      <c r="A642" s="0" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="1" t="s">
+      <c r="A643" s="0" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="1" t="s">
+      <c r="A644" s="0" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="1" t="s">
+      <c r="A645" s="0" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="1" t="s">
+      <c r="A646" s="0" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="1" t="s">
+      <c r="A647" s="0" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="1" t="s">
+      <c r="A648" s="0" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="1" t="s">
+      <c r="A649" s="0" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="1" t="s">
+      <c r="A650" s="0" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="1" t="s">
+      <c r="A651" s="0" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="1" t="s">
+      <c r="A652" s="0" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="1" t="s">
+      <c r="A653" s="0" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="1" t="s">
+      <c r="A654" s="0" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="1" t="s">
+      <c r="A655" s="0" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="1" t="s">
+      <c r="A656" s="0" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="1" t="s">
+      <c r="A657" s="0" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="1" t="s">
+      <c r="A658" s="0" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="1" t="s">
+      <c r="A659" s="0" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="1" t="s">
+      <c r="A660" s="0" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="1" t="s">
+      <c r="A661" s="0" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="1" t="s">
+      <c r="A662" s="0" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="1" t="s">
+      <c r="A663" s="0" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="1" t="s">
+      <c r="A664" s="0" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="1" t="s">
+      <c r="A665" s="0" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="1" t="s">
+      <c r="A666" s="0" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="1" t="s">
+      <c r="A667" s="0" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="1" t="s">
+      <c r="A668" s="0" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="1" t="s">
+      <c r="A669" s="0" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="1" t="s">
+      <c r="A670" s="0" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="1" t="s">
+      <c r="A671" s="0" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="1" t="s">
+      <c r="A672" s="0" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="1" t="s">
+      <c r="A673" s="0" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="1" t="s">
+      <c r="A674" s="0" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="1" t="s">
+      <c r="A675" s="0" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="1" t="s">
+      <c r="A676" s="0" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="1" t="s">
+      <c r="A677" s="0" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="1" t="s">
+      <c r="A678" s="0" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="1" t="s">
+      <c r="A679" s="0" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="1" t="s">
+      <c r="A680" s="0" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="1" t="s">
+      <c r="A681" s="0" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="1" t="s">
+      <c r="A682" s="0" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="1" t="s">
+      <c r="A683" s="0" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="1" t="s">
+      <c r="A684" s="0" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="1" t="s">
+      <c r="A685" s="0" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="1" t="s">
+      <c r="A686" s="0" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="1" t="s">
+      <c r="A687" s="0" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="1" t="s">
+      <c r="A688" s="0" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="1" t="s">
+      <c r="A689" s="0" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="1" t="s">
+      <c r="A690" s="0" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="1" t="s">
+      <c r="A691" s="0" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="1" t="s">
+      <c r="A692" s="0" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="1" t="s">
+      <c r="A693" s="0" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="1" t="s">
+      <c r="A694" s="0" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="1" t="s">
+      <c r="A695" s="0" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="1" t="s">
+      <c r="A696" s="0" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="1" t="s">
+      <c r="A697" s="0" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="1" t="s">
+      <c r="A698" s="0" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="1" t="s">
+      <c r="A699" s="0" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="1" t="s">
+      <c r="A700" s="0" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="1" t="s">
+      <c r="A701" s="0" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="1" t="s">
+      <c r="A702" s="0" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="1" t="s">
+      <c r="A703" s="0" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="1" t="s">
+      <c r="A704" s="0" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="1" t="s">
+      <c r="A705" s="0" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="1" t="s">
+      <c r="A706" s="0" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="1" t="s">
+      <c r="A707" s="0" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="1" t="s">
+      <c r="A708" s="0" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="1" t="s">
+      <c r="A709" s="0" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="1" t="s">
+      <c r="A710" s="0" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A711" s="1" t="s">
+      <c r="A711" s="0" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="1" t="s">
+      <c r="A712" s="0" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="1" t="s">
+      <c r="A713" s="0" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="1" t="s">
+      <c r="A714" s="0" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="1" t="s">
+      <c r="A715" s="0" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="1" t="s">
+      <c r="A716" s="0" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="1" t="s">
+      <c r="A717" s="0" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="1" t="s">
+      <c r="A718" s="0" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="1" t="s">
+      <c r="A719" s="0" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="1" t="s">
+      <c r="A720" s="0" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="1" t="s">
+      <c r="A721" s="0" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="1" t="s">
+      <c r="A722" s="0" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="1" t="s">
+      <c r="A723" s="0" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="1" t="s">
+      <c r="A724" s="0" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="1" t="s">
+      <c r="A725" s="0" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="1" t="s">
+      <c r="A726" s="0" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="1" t="s">
+      <c r="A727" s="0" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="1" t="s">
+      <c r="A728" s="0" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="1" t="s">
+      <c r="A729" s="0" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="1" t="s">
+      <c r="A730" s="0" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="1" t="s">
+      <c r="A731" s="0" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="1" t="s">
+      <c r="A732" s="0" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="1" t="s">
+      <c r="A733" s="0" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="1" t="s">
+      <c r="A734" s="0" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="1" t="s">
+      <c r="A735" s="0" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="1" t="s">
+      <c r="A736" s="0" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="1" t="s">
+      <c r="A737" s="0" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="1" t="s">
+      <c r="A738" s="0" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="1" t="s">
+      <c r="A739" s="0" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="1" t="s">
+      <c r="A740" s="0" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="1" t="s">
+      <c r="A741" s="0" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="1" t="s">
+      <c r="A742" s="0" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="1" t="s">
+      <c r="A743" s="0" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="1" t="s">
+      <c r="A744" s="0" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="1" t="s">
+      <c r="A745" s="0" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="1" t="s">
+      <c r="A746" s="0" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A747" s="1" t="s">
+      <c r="A747" s="0" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A748" s="1" t="s">
+      <c r="A748" s="0" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="1" t="s">
+      <c r="A749" s="0" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="1" t="s">
+      <c r="A750" s="0" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="1" t="s">
+      <c r="A751" s="0" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A752" s="1" t="s">
+      <c r="A752" s="0" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="1" t="s">
+      <c r="A753" s="0" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="1" t="s">
+      <c r="A754" s="0" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A755" s="1" t="s">
+      <c r="A755" s="0" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="1" t="s">
+      <c r="A756" s="0" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A757" s="1" t="s">
+      <c r="A757" s="0" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A758" s="1" t="s">
+      <c r="A758" s="0" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A759" s="1" t="s">
+      <c r="A759" s="0" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="1" t="s">
+      <c r="A760" s="0" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A761" s="1" t="s">
+      <c r="A761" s="0" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="1" t="s">
+      <c r="A762" s="0" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A763" s="1" t="s">
+      <c r="A763" s="0" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A764" s="1" t="s">
+      <c r="A764" s="0" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A765" s="1" t="s">
+      <c r="A765" s="0" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A766" s="1" t="s">
+      <c r="A766" s="0" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A767" s="1" t="s">
+      <c r="A767" s="0" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="1" t="s">
+      <c r="A768" s="0" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="1" t="s">
+      <c r="A769" s="0" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A770" s="1" t="s">
+      <c r="A770" s="0" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A771" s="1" t="s">
+      <c r="A771" s="0" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A772" s="1" t="s">
+      <c r="A772" s="0" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A773" s="1" t="s">
+      <c r="A773" s="0" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="1" t="s">
+      <c r="A774" s="0" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A775" s="1" t="s">
+      <c r="A775" s="0" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="1" t="s">
+      <c r="A776" s="0" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="1" t="s">
+      <c r="A777" s="0" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="1" t="s">
+      <c r="A778" s="0" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="1" t="s">
+      <c r="A779" s="0" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="1" t="s">
+      <c r="A780" s="0" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="1" t="s">
+      <c r="A781" s="0" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="1" t="s">
+      <c r="A782" s="0" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="1" t="s">
+      <c r="A783" s="0" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="1" t="s">
+      <c r="A784" s="0" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A785" s="1" t="s">
+      <c r="A785" s="0" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A786" s="1" t="s">
+      <c r="A786" s="0" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="1" t="s">
+      <c r="A787" s="0" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="1" t="s">
+      <c r="A788" s="0" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="1" t="s">
+      <c r="A789" s="0" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="1" t="s">
+      <c r="A790" s="0" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="1" t="s">
+      <c r="A791" s="0" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="1" t="s">
+      <c r="A792" s="0" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="1" t="s">
+      <c r="A793" s="0" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="1" t="s">
+      <c r="A794" s="0" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="1" t="s">
+      <c r="A795" s="0" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="1" t="s">
+      <c r="A796" s="0" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="1" t="s">
+      <c r="A797" s="0" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="1" t="s">
+      <c r="A798" s="0" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="1" t="s">
+      <c r="A799" s="0" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="1" t="s">
+      <c r="A800" s="0" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="1" t="s">
+      <c r="A801" s="0" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="1" t="s">
+      <c r="A802" s="0" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="1" t="s">
+      <c r="A803" s="0" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="1" t="s">
+      <c r="A804" s="0" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="1" t="s">
+      <c r="A805" s="0" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="1" t="s">
+      <c r="A806" s="0" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="1" t="s">
+      <c r="A807" s="0" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="1" t="s">
+      <c r="A808" s="0" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="1" t="s">
+      <c r="A809" s="0" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="1" t="s">
+      <c r="A810" s="0" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="1" t="s">
+      <c r="A811" s="0" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="1" t="s">
+      <c r="A812" s="0" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="1" t="s">
+      <c r="A813" s="0" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="1" t="s">
+      <c r="A814" s="0" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="1" t="s">
+      <c r="A815" s="0" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="1" t="s">
+      <c r="A816" s="0" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="1" t="s">
+      <c r="A817" s="0" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="1" t="s">
+      <c r="A818" s="0" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="1" t="s">
+      <c r="A819" s="0" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="1" t="s">
+      <c r="A820" s="0" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="1" t="s">
+      <c r="A821" s="0" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="1" t="s">
+      <c r="A822" s="0" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="1" t="s">
+      <c r="A823" s="0" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="1" t="s">
+      <c r="A824" s="0" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="1" t="s">
+      <c r="A825" s="0" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="1" t="s">
+      <c r="A826" s="0" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="1" t="s">
+      <c r="A827" s="0" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="1" t="s">
+      <c r="A828" s="0" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="1" t="s">
+      <c r="A829" s="0" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="1" t="s">
+      <c r="A830" s="0" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="1" t="s">
+      <c r="A831" s="0" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="1" t="s">
+      <c r="A832" s="0" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="1" t="s">
+      <c r="A833" s="0" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="1" t="s">
-        <v>832</v>
+      <c r="A834" s="0" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="1" t="s">
-        <v>833</v>
+      <c r="A835" s="0" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="1" t="s">
-        <v>834</v>
+      <c r="A836" s="0" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="1" t="s">
-        <v>835</v>
+      <c r="A837" s="0" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="1" t="s">
-        <v>836</v>
+      <c r="A838" s="0" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="1" t="s">
-        <v>837</v>
+      <c r="A839" s="0" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="1" t="s">
-        <v>838</v>
+      <c r="A840" s="0" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="1" t="s">
-        <v>839</v>
+      <c r="A841" s="0" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="1" t="s">
-        <v>840</v>
+      <c r="A842" s="0" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="1" t="s">
-        <v>841</v>
+      <c r="A843" s="0" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="1" t="s">
-        <v>842</v>
+      <c r="A844" s="0" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A845" s="1" t="s">
-        <v>843</v>
+      <c r="A845" s="0" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="1" t="s">
-        <v>844</v>
+      <c r="A846" s="0" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A847" s="1" t="s">
-        <v>845</v>
+      <c r="A847" s="0" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="1" t="s">
-        <v>846</v>
+      <c r="A848" s="0" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="1" t="s">
-        <v>847</v>
+      <c r="A849" s="0" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="1" t="s">
-        <v>848</v>
+      <c r="A850" s="0" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="1" t="s">
-        <v>849</v>
+      <c r="A851" s="0" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="1" t="s">
-        <v>850</v>
+      <c r="A852" s="0" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="1" t="s">
-        <v>851</v>
+      <c r="A853" s="0" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="1" t="s">
-        <v>852</v>
+      <c r="A854" s="0" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="1" t="s">
-        <v>853</v>
+      <c r="A855" s="0" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="1" t="s">
-        <v>854</v>
+      <c r="A856" s="0" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="1" t="s">
-        <v>855</v>
+      <c r="A857" s="0" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="1" t="s">
-        <v>856</v>
+      <c r="A858" s="0" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A859" s="1" t="s">
-        <v>857</v>
+      <c r="A859" s="0" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A860" s="1" t="s">
-        <v>858</v>
+      <c r="A860" s="0" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="1" t="s">
-        <v>859</v>
+      <c r="A861" s="0" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="1" t="s">
-        <v>860</v>
+      <c r="A862" s="0" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="1" t="s">
-        <v>861</v>
+      <c r="A863" s="0" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="1" t="s">
-        <v>862</v>
+      <c r="A864" s="0" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="1" t="s">
-        <v>863</v>
+      <c r="A865" s="0" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="1" t="s">
-        <v>864</v>
+      <c r="A866" s="0" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A867" s="1" t="s">
-        <v>865</v>
+      <c r="A867" s="0" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="1" t="s">
-        <v>866</v>
+      <c r="A868" s="0" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="1" t="s">
-        <v>867</v>
+      <c r="A869" s="0" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="1" t="s">
-        <v>868</v>
+      <c r="A870" s="0" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="1" t="s">
-        <v>869</v>
+      <c r="A871" s="0" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A872" s="1" t="s">
-        <v>870</v>
+      <c r="A872" s="0" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="1" t="s">
-        <v>871</v>
+      <c r="A873" s="0" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A874" s="1" t="s">
-        <v>872</v>
+      <c r="A874" s="0" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A875" s="1" t="s">
-        <v>873</v>
+      <c r="A875" s="0" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="1" t="s">
-        <v>874</v>
+      <c r="A876" s="0" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A877" s="1" t="s">
-        <v>875</v>
+      <c r="A877" s="0" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="1" t="s">
-        <v>876</v>
+      <c r="A878" s="0" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A879" s="1" t="s">
-        <v>877</v>
+      <c r="A879" s="0" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="1" t="s">
-        <v>878</v>
+      <c r="A880" s="0" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="1" t="s">
-        <v>879</v>
+      <c r="A881" s="0" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A882" s="1" t="s">
-        <v>880</v>
+      <c r="A882" s="0" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="1" t="s">
-        <v>881</v>
+      <c r="A883" s="0" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="1" t="s">
-        <v>882</v>
+      <c r="A884" s="0" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="1" t="s">
-        <v>883</v>
+      <c r="A885" s="0" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="1" t="s">
-        <v>884</v>
+      <c r="A886" s="0" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="1" t="s">
-        <v>885</v>
+      <c r="A887" s="0" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A888" s="1" t="s">
-        <v>886</v>
+      <c r="A888" s="0" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A889" s="1" t="s">
-        <v>887</v>
+      <c r="A889" s="0" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="1" t="s">
-        <v>888</v>
+      <c r="A890" s="0" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A891" s="1" t="s">
-        <v>889</v>
+      <c r="A891" s="0" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="1" t="s">
-        <v>890</v>
+      <c r="A892" s="0" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A893" s="1" t="s">
-        <v>891</v>
+      <c r="A893" s="0" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="1" t="s">
-        <v>892</v>
+      <c r="A894" s="0" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="1" t="s">
-        <v>893</v>
+      <c r="A895" s="0" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="1" t="s">
-        <v>894</v>
+      <c r="A896" s="0" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="1" t="s">
-        <v>895</v>
+      <c r="A897" s="0" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="1" t="s">
-        <v>896</v>
+      <c r="A898" s="0" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="1" t="s">
-        <v>897</v>
+      <c r="A899" s="0" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="1" t="s">
-        <v>898</v>
+      <c r="A900" s="0" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A901" s="1" t="s">
-        <v>899</v>
+      <c r="A901" s="0" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A902" s="1" t="s">
-        <v>900</v>
+      <c r="A902" s="0" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="1" t="s">
-        <v>901</v>
+      <c r="A903" s="0" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A904" s="1" t="s">
-        <v>902</v>
+      <c r="A904" s="0" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="1" t="s">
-        <v>903</v>
+      <c r="A905" s="0" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="1" t="s">
-        <v>904</v>
+      <c r="A906" s="0" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A907" s="1" t="s">
-        <v>905</v>
+      <c r="A907" s="0" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A908" s="1" t="s">
-        <v>906</v>
+      <c r="A908" s="0" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="1" t="s">
-        <v>907</v>
+      <c r="A909" s="0" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="1" t="s">
-        <v>908</v>
+      <c r="A910" s="0" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="1" t="s">
-        <v>909</v>
+      <c r="A911" s="0" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="1" t="s">
-        <v>910</v>
+      <c r="A912" s="0" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="1" t="s">
-        <v>911</v>
+      <c r="A913" s="0" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="1" t="s">
-        <v>912</v>
+      <c r="A914" s="0" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="1" t="s">
-        <v>913</v>
+      <c r="A915" s="0" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="1" t="s">
-        <v>914</v>
+      <c r="A916" s="0" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="1" t="s">
-        <v>915</v>
+      <c r="A917" s="0" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="1" t="s">
-        <v>916</v>
+      <c r="A918" s="0" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="1" t="s">
-        <v>917</v>
+      <c r="A919" s="0" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A920" s="1" t="s">
-        <v>918</v>
+      <c r="A920" s="0" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A921" s="1" t="s">
-        <v>919</v>
+      <c r="A921" s="0" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="1" t="s">
-        <v>920</v>
+      <c r="A922" s="0" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="1" t="s">
-        <v>921</v>
+      <c r="A923" s="0" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="1" t="s">
-        <v>922</v>
+      <c r="A924" s="0" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="1" t="s">
-        <v>923</v>
+      <c r="A925" s="0" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A926" s="1" t="s">
-        <v>924</v>
+      <c r="A926" s="0" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="1" t="s">
-        <v>925</v>
+      <c r="A927" s="0" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A928" s="1" t="s">
-        <v>926</v>
+      <c r="A928" s="0" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="1" t="s">
-        <v>927</v>
+      <c r="A929" s="0" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A930" s="1" t="s">
-        <v>928</v>
+      <c r="A930" s="0" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="1" t="s">
-        <v>929</v>
+      <c r="A931" s="0" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A932" s="1" t="s">
-        <v>930</v>
+      <c r="A932" s="0" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="1" t="s">
-        <v>931</v>
+      <c r="A933" s="0" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="1" t="s">
-        <v>932</v>
+      <c r="A934" s="0" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="1" t="s">
-        <v>933</v>
+      <c r="A935" s="0" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="1" t="s">
-        <v>934</v>
+      <c r="A936" s="0" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="1" t="s">
-        <v>935</v>
+      <c r="A937" s="0" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="1" t="s">
-        <v>936</v>
+      <c r="A938" s="0" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A939" s="1" t="s">
-        <v>937</v>
+      <c r="A939" s="0" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="1" t="s">
-        <v>938</v>
+      <c r="A940" s="0" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="1" t="s">
-        <v>939</v>
+      <c r="A941" s="0" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="1" t="s">
-        <v>940</v>
+      <c r="A942" s="0" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="1" t="s">
-        <v>941</v>
+      <c r="A943" s="0" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="1" t="s">
-        <v>942</v>
+      <c r="A944" s="0" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="1" t="s">
-        <v>943</v>
+      <c r="A945" s="0" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="1" t="s">
-        <v>944</v>
+      <c r="A946" s="0" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="1" t="s">
-        <v>945</v>
+      <c r="A947" s="0" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A948" s="1" t="s">
-        <v>946</v>
+      <c r="A948" s="0" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="1" t="s">
-        <v>947</v>
+      <c r="A949" s="0" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="1" t="s">
-        <v>948</v>
+      <c r="A950" s="0" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="1" t="s">
-        <v>949</v>
+      <c r="A951" s="0" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="1" t="s">
-        <v>950</v>
+      <c r="A952" s="0" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="1" t="s">
-        <v>951</v>
+      <c r="A953" s="0" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A954" s="1" t="s">
-        <v>952</v>
+      <c r="A954" s="0" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="1" t="s">
-        <v>953</v>
+      <c r="A955" s="0" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A956" s="1" t="s">
-        <v>954</v>
+      <c r="A956" s="0" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="1" t="s">
-        <v>955</v>
+      <c r="A957" s="0" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="1" t="s">
-        <v>956</v>
+      <c r="A958" s="0" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A959" s="1" t="s">
-        <v>957</v>
+      <c r="A959" s="0" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="1" t="s">
-        <v>958</v>
+      <c r="A960" s="0" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="1" t="s">
-        <v>959</v>
+      <c r="A961" s="0" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="1" t="s">
-        <v>960</v>
+      <c r="A962" s="0" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="1" t="s">
-        <v>961</v>
+      <c r="A963" s="0" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="1" t="s">
-        <v>962</v>
+      <c r="A964" s="0" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="1" t="s">
-        <v>963</v>
+      <c r="A965" s="0" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="1" t="s">
-        <v>964</v>
+      <c r="A966" s="0" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="1" t="s">
-        <v>965</v>
+      <c r="A967" s="0" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="1" t="s">
-        <v>966</v>
+      <c r="A968" s="0" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="1" t="s">
-        <v>967</v>
+      <c r="A969" s="0" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="1" t="s">
-        <v>968</v>
+      <c r="A970" s="0" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="1" t="s">
-        <v>969</v>
+      <c r="A971" s="0" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="1" t="s">
-        <v>970</v>
+      <c r="A972" s="0" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="1" t="s">
-        <v>971</v>
+      <c r="A973" s="0" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="1" t="s">
-        <v>972</v>
+      <c r="A974" s="0" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="1" t="s">
-        <v>973</v>
+      <c r="A975" s="0" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="1" t="s">
-        <v>974</v>
+      <c r="A976" s="0" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="1" t="s">
-        <v>975</v>
+      <c r="A977" s="0" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="1" t="s">
-        <v>976</v>
+      <c r="A978" s="0" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="1" t="s">
-        <v>977</v>
+      <c r="A979" s="0" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A980" s="1" t="s">
-        <v>978</v>
+      <c r="A980" s="0" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="1" t="s">
-        <v>979</v>
+      <c r="A981" s="0" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="1" t="s">
-        <v>980</v>
+      <c r="A982" s="0" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A983" s="1" t="s">
-        <v>981</v>
+      <c r="A983" s="0" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A984" s="1" t="s">
-        <v>982</v>
+      <c r="A984" s="0" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A985" s="1" t="s">
-        <v>983</v>
+      <c r="A985" s="0" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A986" s="1" t="s">
-        <v>984</v>
+      <c r="A986" s="0" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="1" t="s">
-        <v>985</v>
+      <c r="A987" s="0" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="1" t="s">
-        <v>986</v>
+      <c r="A988" s="0" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="1" t="s">
-        <v>987</v>
+      <c r="A989" s="0" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="1" t="s">
-        <v>988</v>
+      <c r="A990" s="0" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="1" t="s">
-        <v>989</v>
+      <c r="A991" s="0" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="1" t="s">
-        <v>990</v>
+      <c r="A992" s="0" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="1" t="s">
-        <v>991</v>
+      <c r="A993" s="0" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="1" t="s">
-        <v>992</v>
+      <c r="A994" s="0" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="1" t="s">
-        <v>993</v>
+      <c r="A995" s="0" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="1" t="s">
-        <v>994</v>
+      <c r="A996" s="0" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="1" t="s">
-        <v>995</v>
+      <c r="A997" s="0" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="1" t="s">
-        <v>996</v>
+      <c r="A998" s="0" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="1" t="s">
-        <v>997</v>
+      <c r="A999" s="2" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="1" t="s">
-        <v>998</v>
+      <c r="A1000" s="0" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1001" s="1" t="s">
-        <v>999</v>
+      <c r="A1001" s="0" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1002" s="1" t="s">
-        <v>1000</v>
+      <c r="A1002" s="0" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1003" s="1" t="s">
-        <v>1001</v>
+      <c r="A1003" s="0" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1004" s="1" t="s">
-        <v>1002</v>
+      <c r="A1004" s="0" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1005" s="1" t="s">
-        <v>1003</v>
+      <c r="A1005" s="0" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1006" s="1" t="s">
-        <v>1004</v>
+      <c r="A1006" s="0" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1007" s="1" t="s">
-        <v>1005</v>
+      <c r="A1007" s="0" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1008" s="1" t="s">
-        <v>1006</v>
+      <c r="A1008" s="0" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1009" s="1" t="s">
-        <v>1007</v>
+      <c r="A1009" s="0" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1010" s="1" t="s">
-        <v>1008</v>
+      <c r="A1010" s="0" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1011" s="1" t="s">
-        <v>1009</v>
+      <c r="A1011" s="0" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1012" s="1" t="s">
-        <v>1010</v>
+      <c r="A1012" s="0" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1013" s="1" t="s">
-        <v>1011</v>
+      <c r="A1013" s="0" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1014" s="1" t="s">
-        <v>1012</v>
+      <c r="A1014" s="0" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1015" s="1" t="s">
-        <v>1013</v>
+      <c r="A1015" s="0" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1016" s="1" t="s">
-        <v>1014</v>
+      <c r="A1016" s="0" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1017" s="1" t="s">
-        <v>1015</v>
+      <c r="A1017" s="0" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1018" s="1" t="s">
-        <v>1016</v>
+      <c r="A1018" s="0" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1019" s="1" t="s">
-        <v>1017</v>
+      <c r="A1019" s="0" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1020" s="1" t="s">
-        <v>1018</v>
+      <c r="A1020" s="0" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1021" s="1" t="s">
-        <v>1019</v>
+      <c r="A1021" s="0" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1022" s="1" t="s">
-        <v>1020</v>
+      <c r="A1022" s="0" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1023" s="1" t="s">
-        <v>1021</v>
+      <c r="A1023" s="0" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1024" s="1" t="s">
-        <v>1022</v>
+      <c r="A1024" s="0" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1025" s="1" t="s">
-        <v>1023</v>
+      <c r="A1025" s="0" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1026" s="1" t="s">
-        <v>1024</v>
+      <c r="A1026" s="0" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1027" s="1" t="s">
-        <v>1025</v>
+      <c r="A1027" s="0" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1028" s="1" t="s">
-        <v>1026</v>
+      <c r="A1028" s="0" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1029" s="1" t="s">
-        <v>1027</v>
+      <c r="A1029" s="0" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1030" s="1" t="s">
-        <v>1028</v>
+      <c r="A1030" s="0" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1031" s="1" t="s">
-        <v>1029</v>
+      <c r="A1031" s="0" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1032" s="1" t="s">
-        <v>1030</v>
+      <c r="A1032" s="0" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1033" s="1" t="s">
-        <v>1031</v>
+      <c r="A1033" s="0" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1034" s="1" t="s">
-        <v>1032</v>
+      <c r="A1034" s="0" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1035" s="1" t="s">
-        <v>1033</v>
+      <c r="A1035" s="0" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1036" s="1" t="s">
-        <v>1034</v>
+      <c r="A1036" s="0" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1037" s="1" t="s">
-        <v>1035</v>
+      <c r="A1037" s="0" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1038" s="1" t="s">
-        <v>1036</v>
+      <c r="A1038" s="0" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="1039" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1039" s="1" t="s">
-        <v>1037</v>
+      <c r="A1039" s="0" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1040" s="1" t="s">
-        <v>1038</v>
+      <c r="A1040" s="0" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1041" s="1" t="s">
-        <v>1039</v>
+      <c r="A1041" s="0" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1042" s="1" t="s">
-        <v>1040</v>
+      <c r="A1042" s="0" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1043" s="1" t="s">
-        <v>1041</v>
+      <c r="A1043" s="0" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1044" s="1" t="s">
-        <v>1042</v>
+      <c r="A1044" s="0" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1045" s="1" t="s">
-        <v>1043</v>
+      <c r="A1045" s="0" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1046" s="1" t="s">
-        <v>1044</v>
+      <c r="A1046" s="0" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1047" s="1" t="s">
-        <v>1045</v>
+      <c r="A1047" s="0" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1048" s="1" t="s">
-        <v>1046</v>
+      <c r="A1048" s="0" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1049" s="1" t="s">
-        <v>1047</v>
+      <c r="A1049" s="0" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1050" s="1" t="s">
-        <v>1048</v>
+      <c r="A1050" s="0" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1051" s="1" t="s">
-        <v>1049</v>
+      <c r="A1051" s="0" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1052" s="1" t="s">
-        <v>1050</v>
+      <c r="A1052" s="0" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1053" s="1" t="s">
-        <v>1051</v>
+      <c r="A1053" s="0" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1054" s="1" t="s">
-        <v>1052</v>
+      <c r="A1054" s="0" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1055" s="1" t="s">
-        <v>1053</v>
+      <c r="A1055" s="0" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1056" s="1" t="s">
-        <v>1054</v>
+      <c r="A1056" s="0" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1057" s="1" t="s">
-        <v>1055</v>
+      <c r="A1057" s="0" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1058" s="1" t="s">
-        <v>1056</v>
+      <c r="A1058" s="0" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1059" s="1" t="s">
-        <v>1057</v>
+      <c r="A1059" s="0" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1060" s="1" t="s">
-        <v>1058</v>
+      <c r="A1060" s="0" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1061" s="1" t="s">
-        <v>1059</v>
+      <c r="A1061" s="0" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1062" s="1" t="s">
-        <v>1060</v>
+      <c r="A1062" s="0" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1063" s="1" t="s">
-        <v>1061</v>
+      <c r="A1063" s="0" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1064" s="1" t="s">
-        <v>1062</v>
+      <c r="A1064" s="0" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1065" s="1" t="s">
-        <v>1063</v>
+      <c r="A1065" s="0" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1066" s="1" t="s">
-        <v>1064</v>
+      <c r="A1066" s="0" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1067" s="1" t="s">
-        <v>1065</v>
+      <c r="A1067" s="0" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1068" s="1" t="s">
-        <v>1066</v>
+      <c r="A1068" s="0" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1069" s="1" t="s">
-        <v>1067</v>
+      <c r="A1069" s="0" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1070" s="1" t="s">
-        <v>1068</v>
+      <c r="A1070" s="0" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1071" s="1" t="s">
-        <v>1069</v>
+      <c r="A1071" s="0" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="1072" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1072" s="1" t="s">
-        <v>1070</v>
+      <c r="A1072" s="0" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="1073" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1073" s="1" t="s">
-        <v>1071</v>
+      <c r="A1073" s="0" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="1074" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1074" s="1" t="s">
-        <v>1072</v>
+      <c r="A1074" s="0" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="1075" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1075" s="1" t="s">
-        <v>1073</v>
+      <c r="A1075" s="0" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="1076" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1076" s="1" t="s">
-        <v>1074</v>
+      <c r="A1076" s="0" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="1077" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1077" s="1" t="s">
-        <v>1075</v>
+      <c r="A1077" s="0" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="1078" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1078" s="1" t="s">
-        <v>1076</v>
+      <c r="A1078" s="0" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="1079" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1079" s="1" t="s">
-        <v>1077</v>
+      <c r="A1079" s="0" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="1080" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1080" s="1" t="s">
-        <v>1078</v>
+      <c r="A1080" s="0" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1081" s="1" t="s">
-        <v>1079</v>
+      <c r="A1081" s="0" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="1082" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1082" s="1" t="s">
-        <v>1080</v>
+      <c r="A1082" s="0" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="1083" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1083" s="1" t="s">
-        <v>1081</v>
+      <c r="A1083" s="0" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="1084" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1084" s="1" t="s">
-        <v>1082</v>
+      <c r="A1084" s="0" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="1085" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1085" s="1" t="s">
-        <v>1083</v>
+      <c r="A1085" s="0" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="1086" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1086" s="1" t="s">
-        <v>1084</v>
+      <c r="A1086" s="0" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="1087" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1087" s="1" t="s">
-        <v>1085</v>
+      <c r="A1087" s="0" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="1088" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1088" s="1" t="s">
-        <v>1086</v>
+      <c r="A1088" s="0" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="1089" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1089" s="1" t="s">
-        <v>1087</v>
+      <c r="A1089" s="0" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1090" s="1" t="s">
-        <v>1088</v>
+      <c r="A1090" s="0" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="1091" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1091" s="1" t="s">
-        <v>1089</v>
+      <c r="A1091" s="0" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1092" s="1" t="s">
-        <v>1090</v>
+      <c r="A1092" s="0" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1093" s="1" t="s">
-        <v>1091</v>
+      <c r="A1093" s="0" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="1094" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1094" s="1" t="s">
-        <v>1092</v>
+      <c r="A1094" s="0" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="1095" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1095" s="1" t="s">
-        <v>1093</v>
+      <c r="A1095" s="0" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="1096" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1096" s="1" t="s">
-        <v>1094</v>
+      <c r="A1096" s="0" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="1097" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1097" s="1" t="s">
-        <v>1095</v>
+      <c r="A1097" s="0" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="1098" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1098" s="1" t="s">
-        <v>1096</v>
+      <c r="A1098" s="0" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="1099" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1099" s="1" t="s">
-        <v>1097</v>
+      <c r="A1099" s="0" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="1100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1100" s="1" t="s">
-        <v>1098</v>
+      <c r="A1100" s="0" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="1101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1101" s="1" t="s">
-        <v>1099</v>
+      <c r="A1101" s="0" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="1102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1102" s="1" t="s">
-        <v>1100</v>
+      <c r="A1102" s="0" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="1103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1103" s="1" t="s">
-        <v>1101</v>
+      <c r="A1103" s="0" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="1104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1104" s="1" t="s">
-        <v>1102</v>
+      <c r="A1104" s="0" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1105" s="1" t="s">
-        <v>1103</v>
+      <c r="A1105" s="0" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1106" s="1" t="s">
-        <v>1104</v>
+      <c r="A1106" s="0" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="1107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1107" s="1" t="s">
-        <v>1105</v>
+      <c r="A1107" s="0" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1108" s="1" t="s">
-        <v>1106</v>
+      <c r="A1108" s="0" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1109" s="1" t="s">
-        <v>1107</v>
+      <c r="A1109" s="0" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1110" s="1" t="s">
-        <v>1108</v>
+      <c r="A1110" s="0" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1111" s="1" t="s">
-        <v>1109</v>
+      <c r="A1111" s="0" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1112" s="1" t="s">
-        <v>1110</v>
+      <c r="A1112" s="0" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1113" s="1" t="s">
-        <v>1111</v>
+      <c r="A1113" s="0" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="1114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1114" s="1" t="s">
-        <v>1112</v>
+      <c r="A1114" s="0" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="1115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1115" s="1" t="s">
-        <v>1113</v>
+      <c r="A1115" s="0" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="1116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1116" s="1" t="s">
-        <v>1114</v>
+      <c r="A1116" s="0" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="1117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1117" s="1" t="s">
-        <v>1115</v>
+      <c r="A1117" s="0" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="1118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1118" s="1" t="s">
-        <v>1116</v>
+      <c r="A1118" s="0" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="1119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1119" s="1" t="s">
-        <v>1117</v>
+      <c r="A1119" s="0" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1120" s="1" t="s">
-        <v>1118</v>
+      <c r="A1120" s="0" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1121" s="1" t="s">
-        <v>1119</v>
+      <c r="A1121" s="0" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1122" s="1" t="s">
-        <v>1120</v>
+      <c r="A1122" s="0" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="1123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1123" s="1" t="s">
-        <v>1121</v>
+      <c r="A1123" s="0" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="1124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1124" s="1" t="s">
-        <v>1122</v>
+      <c r="A1124" s="0" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="1125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1125" s="1" t="s">
-        <v>1123</v>
+      <c r="A1125" s="0" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="1126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1126" s="1" t="s">
-        <v>1124</v>
+      <c r="A1126" s="0" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="1127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1127" s="1" t="s">
-        <v>1125</v>
+      <c r="A1127" s="0" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="1128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1128" s="1" t="s">
-        <v>1126</v>
+      <c r="A1128" s="0" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1129" s="1" t="s">
-        <v>1127</v>
+      <c r="A1129" s="0" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="1130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1130" s="1" t="s">
-        <v>1128</v>
+      <c r="A1130" s="0" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="1131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1131" s="1" t="s">
-        <v>1129</v>
+      <c r="A1131" s="0" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="1132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1132" s="1" t="s">
-        <v>1130</v>
+      <c r="A1132" s="0" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="1133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1133" s="1" t="s">
-        <v>1131</v>
+      <c r="A1133" s="0" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="1134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1134" s="1" t="s">
-        <v>1132</v>
+      <c r="A1134" s="0" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="1135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1135" s="1" t="s">
-        <v>1133</v>
+      <c r="A1135" s="0" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="1136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1136" s="1" t="s">
-        <v>1134</v>
+      <c r="A1136" s="0" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="1137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1137" s="1" t="s">
-        <v>1135</v>
+      <c r="A1137" s="0" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="1138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1138" s="1" t="s">
-        <v>1136</v>
+      <c r="A1138" s="0" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="1139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1139" s="1" t="s">
-        <v>1137</v>
+      <c r="A1139" s="0" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="1140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1140" s="1" t="s">
-        <v>1138</v>
+      <c r="A1140" s="0" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="1141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1141" s="1" t="s">
-        <v>1139</v>
+      <c r="A1141" s="0" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="1142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1142" s="1" t="s">
-        <v>1140</v>
+      <c r="A1142" s="0" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="1143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1143" s="1" t="s">
-        <v>1141</v>
+      <c r="A1143" s="0" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="1144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1144" s="1" t="s">
-        <v>1142</v>
+      <c r="A1144" s="0" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="1145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1145" s="1" t="s">
-        <v>1143</v>
+      <c r="A1145" s="0" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="1146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1146" s="1" t="s">
-        <v>1144</v>
+      <c r="A1146" s="0" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="1147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1147" s="1" t="s">
-        <v>1145</v>
+      <c r="A1147" s="0" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="1148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1148" s="1" t="s">
-        <v>1146</v>
+      <c r="A1148" s="0" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="1149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1149" s="1" t="s">
-        <v>1147</v>
+      <c r="A1149" s="0" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="1150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1150" s="1" t="s">
-        <v>1148</v>
+      <c r="A1150" s="0" t="s">
+        <v>1149</v>
       </c>
     </row>
     <row r="1151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1151" s="1" t="s">
-        <v>1149</v>
+      <c r="A1151" s="0" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="1152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1152" s="1" t="s">
-        <v>1150</v>
+      <c r="A1152" s="0" t="s">
+        <v>1151</v>
       </c>
     </row>
     <row r="1153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1153" s="1" t="s">
-        <v>1151</v>
+      <c r="A1153" s="0" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="1154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1154" s="1" t="s">
-        <v>1152</v>
+      <c r="A1154" s="0" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="1155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1155" s="1" t="s">
-        <v>1153</v>
+      <c r="A1155" s="0" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="1156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1156" s="1" t="s">
-        <v>1154</v>
+      <c r="A1156" s="0" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="1157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1157" s="1" t="s">
-        <v>1155</v>
+      <c r="A1157" s="0" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="1158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1158" s="1" t="s">
-        <v>1156</v>
+      <c r="A1158" s="0" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="1159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1159" s="1" t="s">
-        <v>1157</v>
+      <c r="A1159" s="0" t="s">
+        <v>1158</v>
       </c>
     </row>
     <row r="1160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1160" s="1" t="s">
-        <v>1158</v>
+      <c r="A1160" s="0" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="1161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1161" s="1" t="s">
-        <v>1159</v>
+      <c r="A1161" s="0" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="1162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1162" s="1" t="s">
-        <v>1160</v>
+      <c r="A1162" s="0" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="1163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1163" s="1" t="s">
-        <v>1161</v>
+      <c r="A1163" s="0" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="1164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1164" s="1" t="s">
-        <v>1162</v>
+      <c r="A1164" s="0" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="1165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1165" s="1" t="s">
-        <v>1163</v>
+      <c r="A1165" s="0" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="1166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1166" s="1" t="s">
-        <v>1164</v>
+      <c r="A1166" s="0" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="1167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1167" s="1" t="s">
-        <v>1165</v>
+      <c r="A1167" s="0" t="s">
+        <v>1166</v>
       </c>
     </row>
     <row r="1168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1168" s="1" t="s">
-        <v>1166</v>
+      <c r="A1168" s="0" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="1169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1169" s="1" t="s">
-        <v>1167</v>
+      <c r="A1169" s="0" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="1170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1170" s="1" t="s">
-        <v>1168</v>
+      <c r="A1170" s="0" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="1171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1171" s="1" t="s">
-        <v>1169</v>
+      <c r="A1171" s="0" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="1172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1172" s="1" t="s">
-        <v>1170</v>
+      <c r="A1172" s="0" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="1173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1173" s="1" t="s">
-        <v>1171</v>
+      <c r="A1173" s="0" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="1174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1174" s="1" t="s">
-        <v>1172</v>
+      <c r="A1174" s="0" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="1175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1175" s="1" t="s">
-        <v>1173</v>
+      <c r="A1175" s="0" t="s">
+        <v>1174</v>
       </c>
     </row>
     <row r="1176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1176" s="1" t="s">
-        <v>1174</v>
+      <c r="A1176" s="0" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="1177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1177" s="1" t="s">
-        <v>1175</v>
+      <c r="A1177" s="0" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="1178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1178" s="1" t="s">
-        <v>1176</v>
+      <c r="A1178" s="0" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="1179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1179" s="1" t="s">
-        <v>1177</v>
+      <c r="A1179" s="0" t="s">
+        <v>1178</v>
       </c>
     </row>
     <row r="1180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1180" s="1" t="s">
-        <v>1178</v>
+      <c r="A1180" s="0" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="1181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1181" s="1" t="s">
-        <v>1179</v>
+      <c r="A1181" s="0" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="1182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1182" s="1" t="s">
-        <v>1180</v>
+      <c r="A1182" s="0" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="1183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1183" s="1" t="s">
-        <v>1181</v>
+      <c r="A1183" s="0" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="1184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1184" s="1" t="s">
-        <v>1182</v>
+      <c r="A1184" s="0" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="1185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1185" s="1" t="s">
-        <v>1183</v>
+      <c r="A1185" s="0" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="1186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1186" s="1" t="s">
-        <v>1184</v>
+      <c r="A1186" s="0" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="1187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1187" s="1" t="s">
-        <v>1185</v>
+      <c r="A1187" s="0" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="1188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1188" s="1" t="s">
-        <v>1186</v>
+      <c r="A1188" s="0" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="1189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1189" s="1" t="s">
-        <v>1187</v>
+      <c r="A1189" s="0" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="1190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1190" s="1" t="s">
-        <v>1188</v>
+      <c r="A1190" s="0" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="1191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1191" s="1" t="s">
-        <v>1189</v>
+      <c r="A1191" s="0" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="1192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1192" s="1" t="s">
-        <v>1190</v>
+      <c r="A1192" s="0" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="1193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1193" s="1" t="s">
-        <v>1191</v>
+      <c r="A1193" s="0" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="1194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1194" s="1" t="s">
-        <v>1192</v>
+      <c r="A1194" s="0" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="1195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1195" s="1" t="s">
-        <v>1193</v>
+      <c r="A1195" s="0" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="1196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1196" s="1" t="s">
-        <v>1194</v>
+      <c r="A1196" s="0" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="1197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1197" s="1" t="s">
-        <v>1195</v>
+      <c r="A1197" s="0" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="1198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1198" s="1" t="s">
-        <v>1196</v>
+      <c r="A1198" s="0" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="1199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1199" s="1" t="s">
-        <v>1197</v>
+      <c r="A1199" s="0" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="1200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1200" s="1" t="s">
-        <v>1198</v>
+      <c r="A1200" s="0" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1201" s="1" t="s">
-        <v>1199</v>
+      <c r="A1201" s="0" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="1202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1202" s="1" t="s">
-        <v>1200</v>
+      <c r="A1202" s="0" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="1203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1203" s="1" t="s">
-        <v>1201</v>
+      <c r="A1203" s="0" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="1204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1204" s="1" t="s">
-        <v>1202</v>
+      <c r="A1204" s="0" t="s">
+        <v>1203</v>
       </c>
     </row>
     <row r="1205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1205" s="1" t="s">
-        <v>1203</v>
+      <c r="A1205" s="0" t="s">
+        <v>1204</v>
       </c>
     </row>
     <row r="1206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1206" s="1" t="s">
-        <v>1204</v>
+      <c r="A1206" s="0" t="s">
+        <v>1205</v>
       </c>
     </row>
     <row r="1207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1207" s="1" t="s">
-        <v>1205</v>
+      <c r="A1207" s="0" t="s">
+        <v>1206</v>
       </c>
     </row>
     <row r="1208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1208" s="1" t="s">
-        <v>1206</v>
+      <c r="A1208" s="0" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="1209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1209" s="1" t="s">
-        <v>1207</v>
+      <c r="A1209" s="0" t="s">
+        <v>1208</v>
       </c>
     </row>
     <row r="1210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1210" s="1" t="s">
-        <v>1208</v>
+      <c r="A1210" s="0" t="s">
+        <v>1209</v>
       </c>
     </row>
     <row r="1211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1211" s="1" t="s">
-        <v>1209</v>
+      <c r="A1211" s="0" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="1212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1212" s="1" t="s">
-        <v>1210</v>
+      <c r="A1212" s="0" t="s">
+        <v>1211</v>
       </c>
     </row>
     <row r="1213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1213" s="3" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="1214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1214" s="1" t="s">
+      <c r="A1213" s="0" t="s">
         <v>1212</v>
-      </c>
-    </row>
-    <row r="1215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1215" s="1" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="1216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1216" s="1" t="s">
-        <v>1214</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/Cameras.xlsx
+++ b/src/assets/Cameras.xlsx
@@ -1249,7 +1249,10 @@
     <t xml:space="preserve">PSJC-CSI-574</t>
   </si>
   <si>
-    <t xml:space="preserve">PSJC-CSI-573</t>
+    <t xml:space="preserve">PSJC-CSI-573.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJC-CSI-573.1</t>
   </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-572</t>
@@ -2897,9 +2900,6 @@
   </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-118.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJC-CSI-118.1</t>
   </si>
   <si>
     <t xml:space="preserve">PSJC-CSI-117.2</t>
@@ -3743,11 +3743,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3785,27 +3785,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XER1213"/>
+  <dimension ref="A1:XEQ1213"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16371" min="16369" style="1" width="10.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16373" min="16372" style="0" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16372" min="16368" style="1" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16373" min="16373" style="0" width="10.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16374" style="1" width="10.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="XEP1" s="3"/>
-      <c r="XEQ1" s="3"/>
-      <c r="XER1" s="2"/>
+      <c r="XEO1" s="2"/>
+      <c r="XEP1" s="2"/>
+      <c r="XEQ1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -8793,7 +8793,7 @@
       </c>
     </row>
     <row r="999" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="2" t="s">
+      <c r="A999" s="0" t="s">
         <v>998</v>
       </c>
     </row>
@@ -9863,7 +9863,7 @@
       </c>
     </row>
     <row r="1213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1213" s="0" t="s">
+      <c r="A1213" s="3" t="s">
         <v>1212</v>
       </c>
     </row>
